--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1739867.243999626</v>
+        <v>1732693.955289344</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702199</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>204.9607408318209</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>5.597162971746652</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>51.74930290285269</v>
+        <v>9.223763435107132</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>86.23693751337954</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.0396308464219</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>175.1500896700694</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464215</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>137.3011189935992</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,10 +992,10 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129686</v>
+        <v>84.45800155129682</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>194.1145229758698</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.06365640699147</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7789855469582</v>
+        <v>137.1649833439806</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>36.43582817636835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358483</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>367.0756401748465</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>159.5623709710783</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733109</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>60.92600812502267</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>120.8530343211901</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2151751544596</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>74.23837614724395</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>142.7296107163106</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>29.18937547121088</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>191.927632702486</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>24.34682769251219</v>
+        <v>7.496242627249307</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.1706059301397</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="29">
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.7158589243154</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>46.18719652447452</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>225.4009168789491</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>277.0440578542891</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>100.4879364842347</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.85362778527706</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>105.3989910033707</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595.2995674921788</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="C2" t="n">
-        <v>595.2995674921788</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="D2" t="n">
-        <v>316.3535940554561</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="E2" t="n">
-        <v>316.3535940554561</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873336</v>
+        <v>451.5579872343563</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>436.2428877118114</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1098.972354837961</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>874.2455409289015</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U2" t="n">
-        <v>874.2455409289015</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="V2" t="n">
-        <v>595.2995674921788</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="W2" t="n">
-        <v>595.2995674921788</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="X2" t="n">
-        <v>595.2995674921788</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="Y2" t="n">
-        <v>595.2995674921788</v>
+        <v>737.4494614202825</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.7912929804074</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="C3" t="n">
-        <v>518.7912929804074</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="D3" t="n">
-        <v>518.7912929804074</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="E3" t="n">
-        <v>359.5538379749519</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="F3" t="n">
-        <v>213.0192800018369</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="G3" t="n">
-        <v>74.36454423038307</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="H3" t="n">
-        <v>74.36454423038307</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>274.5546080058863</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>547.9495565712182</v>
+        <v>288.9361218459458</v>
       </c>
       <c r="N3" t="n">
-        <v>821.3445051365501</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
         <v>828.8278839945615</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>773.028649708609</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7912929804074</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X3" t="n">
-        <v>518.7912929804074</v>
+        <v>407.3850896439449</v>
       </c>
       <c r="Y3" t="n">
-        <v>518.7912929804074</v>
+        <v>199.624790878991</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
         <v>22.09252109618844</v>
@@ -4530,10 +4530,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.692765124606</v>
+        <v>420.6511211651172</v>
       </c>
       <c r="C5" t="n">
-        <v>1114.692765124606</v>
+        <v>51.68860422470547</v>
       </c>
       <c r="D5" t="n">
-        <v>1114.692765124606</v>
+        <v>51.68860422470547</v>
       </c>
       <c r="E5" t="n">
-        <v>1114.692765124606</v>
+        <v>51.68860422470547</v>
       </c>
       <c r="F5" t="n">
-        <v>937.7734826295866</v>
+        <v>44.743103475502</v>
       </c>
       <c r="G5" t="n">
-        <v>561.9758757140094</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380377</v>
+        <v>57.64391735380389</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456874</v>
+        <v>220.1747338456877</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039968</v>
+        <v>474.0852112039973</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494149</v>
+        <v>773.2160860494156</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.55521363572</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293127</v>
+        <v>1290.582309293128</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935878</v>
+        <v>1447.523776935879</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385686</v>
+        <v>1287.905382334242</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385686</v>
+        <v>1287.905382334242</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385686</v>
+        <v>1287.905382334242</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385686</v>
+        <v>1149.217383350809</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385686</v>
+        <v>796.4487280806948</v>
       </c>
       <c r="X5" t="n">
-        <v>1114.692765124606</v>
+        <v>796.4487280806948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.692765124606</v>
+        <v>796.4487280806948</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840.8715183091573</v>
+        <v>622.9449989838533</v>
       </c>
       <c r="C6" t="n">
-        <v>666.4184890280303</v>
+        <v>622.9449989838533</v>
       </c>
       <c r="D6" t="n">
-        <v>666.4184890280303</v>
+        <v>474.010589322602</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1810340225749</v>
+        <v>314.7731343171465</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>168.2385763440315</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782835</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="K6" t="n">
-        <v>218.456818636141</v>
+        <v>195.5446164760265</v>
       </c>
       <c r="L6" t="n">
-        <v>502.774827782277</v>
+        <v>479.8626256221627</v>
       </c>
       <c r="M6" t="n">
-        <v>848.0470181903936</v>
+        <v>581.0776013314409</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903936</v>
+        <v>949.3968358693985</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562713</v>
+        <v>1257.711717241718</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706682</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707608</v>
+        <v>1402.84741070761</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107477</v>
+        <v>1402.84741070761</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107477</v>
+        <v>1402.84741070761</v>
       </c>
       <c r="U6" t="n">
-        <v>1234.174372107477</v>
+        <v>1402.84741070761</v>
       </c>
       <c r="V6" t="n">
-        <v>1234.174372107477</v>
+        <v>1402.84741070761</v>
       </c>
       <c r="W6" t="n">
-        <v>1234.174372107477</v>
+        <v>1206.772134974408</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.322871901944</v>
+        <v>998.9206347688753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1009.086855329225</v>
+        <v>791.1603360039214</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="E7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="F7" t="n">
-        <v>315.2036061918666</v>
+        <v>168.3136586939568</v>
       </c>
       <c r="G7" t="n">
-        <v>145.7298834171614</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="H7" t="n">
-        <v>145.7298834171614</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888142</v>
+        <v>32.09990175888151</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611237</v>
+        <v>90.61654790611256</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236683</v>
+        <v>162.7032697236686</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400014</v>
+        <v>238.5105468400018</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057938</v>
+        <v>292.5145415057943</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1358.140854479381</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>989.1783375389698</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>989.1783375389698</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>989.1783375389698</v>
       </c>
       <c r="F8" t="n">
-        <v>625.372765927088</v>
+        <v>578.1924327493623</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252749</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2535.974978926224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2535.974978926224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.974978926224</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.974978926224</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.974978926224</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y8" t="n">
-        <v>2535.974978926224</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942396</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124023</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124023</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1265.767395078122</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T13" t="n">
-        <v>1041.981979867628</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U13" t="n">
-        <v>752.8533410811858</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V13" t="n">
-        <v>498.168852875299</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562259</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438901</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>629.509310661497</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6193631635866</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.0396462065435</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="C19" t="n">
-        <v>503.0396462065435</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="D19" t="n">
-        <v>352.9230067942077</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045608</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065435</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.0396462065435</v>
+        <v>126.7013091079736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5752,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>994.0548613762035</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>704.9262225897617</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>704.9262225897617</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.503549752619</v>
+        <v>415.509052552801</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.513998854602</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.4856756861153</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C25" t="n">
-        <v>699.5494927582084</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D25" t="n">
-        <v>549.4328533458727</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E25" t="n">
-        <v>401.5197597634796</v>
+        <v>272.964375390212</v>
       </c>
       <c r="F25" t="n">
-        <v>401.5197597634796</v>
+        <v>272.964375390212</v>
       </c>
       <c r="G25" t="n">
-        <v>233.3444380833002</v>
+        <v>104.7890537100326</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>1270.926719659885</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.134140516355</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6259,13 +6259,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1388.092170634352</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1188.172160549904</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.3867453394095</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.2581065529677</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>675.2581065529677</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>675.2581065529677</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3803.838860774509</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>3803.838860774509</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>3653.722221362174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>3505.80912777978</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3505.80912777978</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3505.80912777978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V34" t="n">
-        <v>4093.25603081147</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W34" t="n">
-        <v>3803.838860774509</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X34" t="n">
-        <v>3803.838860774509</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y34" t="n">
-        <v>3803.838860774509</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="35">
@@ -6934,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>991.0842369787849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1219.073787876802</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1219.073787876802</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1219.073787876802</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>991.0842369787849</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.0842369787849</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>346.6331511883706</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>198.7200576059774</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>198.7200576059774</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.685527502827</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1186.00103929694</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>896.5838692599799</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619626</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184324</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.5496456007323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.423997082767</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.423997082767</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>1061.198110430972</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.377539843596</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1281.377539843596</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1281.377539843596</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1026.693051637709</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>737.2758816007481</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>509.2863307027308</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>125.6774978810001</v>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>143.9445520392429</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>132.2325872309998</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948384</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>426.8235107281785</v>
+        <v>180.3010716384425</v>
       </c>
       <c r="N6" t="n">
-        <v>65.57565010062406</v>
+        <v>437.6152809470458</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247342</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.83804904622903</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>77.06777566241315</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>44.27839330891794</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>151.4712792417932</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>3.704351930258525</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>116.2316725517204</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>29.61992835590328</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>124.5670006750239</v>
+        <v>141.4175857402868</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>5.322962533237842</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2484934794774318</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>102.7266318430616</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>26.73672644487885</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>9.193294544288221</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>66.00563197914293</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>163.899125433865</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>181.7310255668177</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>92.52181898023258</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>903037.5592155495</v>
+        <v>903037.5592155494</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>903037.5592155495</v>
+        <v>903037.5592155496</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>903037.5592155496</v>
+        <v>903037.5592155495</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>903037.5592155495</v>
+        <v>903037.5592155496</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>903037.5592155496</v>
+        <v>903037.5592155495</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903037.5592155496</v>
+        <v>903037.5592155495</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>903037.5592155496</v>
+        <v>903037.5592155495</v>
       </c>
     </row>
     <row r="12">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590219</v>
       </c>
       <c r="G2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="H2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590217</v>
@@ -26346,10 +26346,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="N2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590216</v>
@@ -26368,10 +26368,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703831</v>
+        <v>106137.1517703835</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252113</v>
+        <v>316711.942425211</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768964</v>
@@ -26392,10 +26392,10 @@
         <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313399</v>
+        <v>24677.24609313402</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817151</v>
+        <v>76496.15793817148</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369123</v>
+        <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484434</v>
+        <v>286886.6599484432</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>43561.42148316556</v>
@@ -26435,7 +26435,7 @@
         <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="I4" t="n">
         <v>43561.42148316556</v>
@@ -26444,10 +26444,10 @@
         <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="L4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="M4" t="n">
         <v>43561.42148316556</v>
@@ -26459,7 +26459,7 @@
         <v>43561.42148316556</v>
       </c>
       <c r="P4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.4220148571</v>
+        <v>58810.42201485713</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39275.46101127879</v>
+        <v>39275.4610112792</v>
       </c>
       <c r="C6" t="n">
-        <v>81842.91667810109</v>
+        <v>81842.91667810077</v>
       </c>
       <c r="D6" t="n">
-        <v>-58100.46646926628</v>
+        <v>-58100.46646926584</v>
       </c>
       <c r="E6" t="n">
-        <v>-152371.0062497571</v>
+        <v>-153345.5975094785</v>
       </c>
       <c r="F6" t="n">
-        <v>372789.0302271395</v>
+        <v>371814.438967418</v>
       </c>
       <c r="G6" t="n">
-        <v>372789.0302271395</v>
+        <v>371814.4389674179</v>
       </c>
       <c r="H6" t="n">
-        <v>372789.0302271395</v>
+        <v>371814.4389674179</v>
       </c>
       <c r="I6" t="n">
-        <v>372789.0302271396</v>
+        <v>371814.4389674178</v>
       </c>
       <c r="J6" t="n">
-        <v>300534.3353560003</v>
+        <v>299559.7440962786</v>
       </c>
       <c r="K6" t="n">
-        <v>348111.7841340055</v>
+        <v>347137.1928742838</v>
       </c>
       <c r="L6" t="n">
-        <v>296292.8722889678</v>
+        <v>295318.2810292463</v>
       </c>
       <c r="M6" t="n">
-        <v>237988.0149933023</v>
+        <v>237013.4237335806</v>
       </c>
       <c r="N6" t="n">
-        <v>372789.0302271395</v>
+        <v>371814.4389674178</v>
       </c>
       <c r="O6" t="n">
-        <v>372789.0302271394</v>
+        <v>371814.4389674178</v>
       </c>
       <c r="P6" t="n">
-        <v>372789.0302271396</v>
+        <v>371814.4389674178</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593885</v>
+        <v>117.5602045593888</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464215</v>
+        <v>372.0396308464219</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026319</v>
+        <v>82.5389438402635</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576978</v>
+        <v>260.1834596576975</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406603</v>
+        <v>95.88311714406639</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081337</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27038,13 +27038,13 @@
         <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406603</v>
+        <v>95.88311714406616</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081339</v>
+        <v>302.2476419081337</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406603</v>
+        <v>95.88311714406639</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081337</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>133.0722060624799</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>200.2146775546512</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>35.0537743198347</v>
+        <v>77.57931378758026</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>59.1841105095517</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27560,7 +27560,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115925</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.69421081705872</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>231.725956071642</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128885</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>120.1819171385217</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27675,13 +27675,13 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>190.4511394765357</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281882</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>57.58046018504982</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.6190393703129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>30.61400220297762</v>
       </c>
       <c r="H7" t="n">
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>112.6394146741283</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.3712176435848</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322671</v>
+        <v>68.41045236322668</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>46.70852984594848</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>56.88594938657954</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946062</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>225.3558661169551</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246771</v>
+        <v>0.4726038374246783</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025476</v>
+        <v>4.840054050025488</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231488</v>
+        <v>18.22005944231493</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662273</v>
+        <v>40.11165994662283</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480932</v>
+        <v>60.11698038480947</v>
       </c>
       <c r="L5" t="n">
-        <v>74.5804300743948</v>
+        <v>74.58043007439498</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819589</v>
+        <v>82.98509856819611</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127877</v>
+        <v>84.32788422127898</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288713</v>
+        <v>79.62842981288733</v>
       </c>
       <c r="P5" t="n">
-        <v>67.9610225764654</v>
+        <v>67.96102257646558</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869414</v>
+        <v>51.03589764869427</v>
       </c>
       <c r="R5" t="n">
-        <v>29.6872008026279</v>
+        <v>29.68720080262798</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531484</v>
+        <v>10.76945994531487</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326525</v>
+        <v>2.06882329832653</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397416</v>
+        <v>0.03780830699397426</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560432</v>
+        <v>0.2528653456560439</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44214689094126</v>
+        <v>2.442146890941266</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596226</v>
+        <v>8.706109488596249</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182819</v>
+        <v>23.89022987182825</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078309</v>
+        <v>40.83220803078319</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483518</v>
+        <v>54.90394270483532</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486674</v>
+        <v>64.07031148486691</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270925</v>
+        <v>65.76606198270942</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106745</v>
+        <v>60.1630982710676</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496847</v>
+        <v>48.2861904349686</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128721</v>
+        <v>32.27803956128729</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134627</v>
+        <v>15.69983260134631</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707642</v>
+        <v>4.696862889707655</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359227</v>
+        <v>1.019224792359229</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368706</v>
+        <v>0.01663587800368711</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005366</v>
+        <v>0.2119938115005372</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886591</v>
+        <v>1.884817705886596</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761596</v>
+        <v>6.375232076761612</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308794</v>
+        <v>14.98796247308798</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342598</v>
+        <v>24.62982646342604</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072525</v>
+        <v>31.51769812072533</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094321</v>
+        <v>33.2309935609433</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898669</v>
+        <v>32.44083480898677</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736678</v>
+        <v>29.96436164736685</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275581</v>
+        <v>25.63968789275587</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846767</v>
+        <v>17.75159088846771</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651401</v>
+        <v>9.532012651651424</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513897</v>
+        <v>3.694473969513906</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477473</v>
+        <v>0.9057917400477496</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912019</v>
+        <v>0.01156329880912022</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>20.89710520914785</v>
       </c>
       <c r="N3" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>7.558968543445864</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201021</v>
+        <v>28.16237059201031</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109935</v>
+        <v>164.1725419109937</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654858</v>
+        <v>256.4752296548582</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337557</v>
+        <v>302.1523988337559</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036672</v>
+        <v>292.2617450366722</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539458</v>
+        <v>230.330399653946</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926785</v>
+        <v>158.5267349926787</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414933</v>
+        <v>41.04519843414946</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557034</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690027</v>
+        <v>167.4560060690028</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284202</v>
+        <v>287.1899082284203</v>
       </c>
       <c r="M6" t="n">
-        <v>348.7597882910269</v>
+        <v>102.2373492012911</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>372.0396308464219</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033525</v>
+        <v>311.4291731033527</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605754</v>
+        <v>232.7745516605755</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111148</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543129</v>
+        <v>2.36033463754319</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104138</v>
+        <v>59.10772338104147</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278379</v>
+        <v>72.81487052278388</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821529</v>
+        <v>76.57300718821537</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140645</v>
+        <v>54.54948956140652</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764929</v>
+        <v>22.91824715764936</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>222.9314639777537</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
